--- a/Four_Column_Data.xlsx
+++ b/Four_Column_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaditya\Python_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332FEED3-92D2-4A57-ABF7-46159EFD9492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A8BF61-9E0A-43BC-9679-7144F62B1C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Gopal</t>
+  </si>
+  <si>
+    <t>Mayank</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,13 +434,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -501,13 +498,27 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
         <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
